--- a/data/long_razon/P24_8-Edad-long_razon.xlsx
+++ b/data/long_razon/P24_8-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>48,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-62,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-51,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-25,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>80,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-33,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-53,33; 106,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-34,76; 279,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-85,92; 2,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-74,92; -13,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-62,98; 48,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,48; 226,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-57,83; 4,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-37,61; 80,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-36,58; 49,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-33,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-21,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-35,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-14,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-34,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-6,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-16,18%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-81,04; 49,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-54,49; 106,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-59,72; 72,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-66,54; 22,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-55,86; 63,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,51; 49,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-64,03; 5,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,44; 60,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-44,63; 28,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-43,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-43,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>43,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-56,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-51,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-22,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-71,01; 2,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-72,3; 7,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 152,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-72,4; -34,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,63; 60,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,65; 45,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-66,64; -30,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-47,72; 10,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 56,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>65,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-14,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-34,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-17,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-23,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-16,27%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-44,67; 83,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 288,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,13; 42,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-56,22; -1,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,24; 80,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,33; 19,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,12; 4,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 87,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-40,53; 12,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-33,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>53,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>31,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-14,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>22,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>40,37%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-76,14; 68,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 392,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 167,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-43,23; 55,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-46,95; 68,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 106,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-47,57; 36,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-24,61; 87,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 97,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-71,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>101,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-13,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-17,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>56,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-37,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>35,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>28,25%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-92,0; -23,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,79; 589,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-64,28; 102,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,86; 58,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,46; 134,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 200,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-62,78; 6,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 140,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-22,43; 116,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-32,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-36,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-35,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-50,72; -7,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 68,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 21,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-49,29; -23,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 28,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 39,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-45,93; -23,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 30,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 21,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
